--- a/Texts/Сюжетные сцены/Глава 17.xlsx
+++ b/Texts/Сюжетные сцены/Глава 17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1682">
   <si>
     <t>Обозначение сцены словами</t>
   </si>
@@ -321,9 +321,6 @@
     <t xml:space="preserve"> Мы так за вас переживали!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Я... Я...[K] Я так...[K] Ей-боже!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Р-ребята...[K] Мы дома...</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t xml:space="preserve"> Íú óàë èà âàò ðåñåçéâàìé!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ÿ... Ÿ...[K] Ÿ óàë...[K] Åê-áïçå!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ñ-ñåáÿóà...[K] Íú äïíà...</t>
   </si>
   <si>
@@ -1029,12 +1023,6 @@
     <t xml:space="preserve"> By gosh!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ей-боже!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Åê-áïçå!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [partner]! [hero]!</t>
   </si>
   <si>
@@ -3456,9 +3444,6 @@
     <t xml:space="preserve"> Это замысловатый узор. Такой\nредко где можно увидеть.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Редкий узор...[K] Ей-боже!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Вы думаете, что я что-то знаю!</t>
   </si>
   <si>
@@ -3543,9 +3528,6 @@
     <t xml:space="preserve"> Üóï èàíúòìïâàóúê ôèïñ. Óàëïê\nñåäëï ãäå íïçîï ôâéäåóû.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ñåäëéê ôèïñ...[K] Åê-áïçå!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Âú äôíàåóå, œóï ÿ œóï-óï èîàý!</t>
   </si>
   <si>
@@ -4062,9 +4044,6 @@
     <t xml:space="preserve"> Жестокий...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Бандит? Ей-боже!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ребята, прошу, послушайте.</t>
   </si>
   <si>
@@ -4287,9 +4266,6 @@
     <t xml:space="preserve"> Çåòóïëéê...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Áàîäéó? Åê-áïçå!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ñåáÿóà, ðñïšô, ðïòìôšàêóå.</t>
   </si>
   <si>
@@ -5062,6 +5038,33 @@
   </si>
   <si>
     <t>\"Âíåòóå íú ðñåäïóâñàóéí ðìàîåóàñîúê\nðàñàìéœ.\"\n                                       -[CS:N]Ãñïâàêì[CR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я... Я...[K] Я так...[K] Ей-богу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ... Ÿ...[K] Ÿ óàë...[K] Åê-áïãô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ей-богу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åê-áïãô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Редкий узор...[K] Ей-богу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñåäëéê ôèïñ...[K] Åê-áïãô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Бандит? Ей-богу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áàîäéó? Åê-áïãô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/m22a1101.ssb</t>
   </si>
 </sst>
 </file>
@@ -5772,8 +5775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E483" sqref="E483"/>
+    <sheetView tabSelected="1" topLeftCell="A481" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E485" sqref="E485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5848,7 +5851,7 @@
         <v>73</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>8</v>
@@ -5867,7 +5870,7 @@
         <v>74</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>9</v>
@@ -5886,7 +5889,7 @@
         <v>75</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>10</v>
@@ -5905,7 +5908,7 @@
         <v>76</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>11</v>
@@ -5924,7 +5927,7 @@
         <v>77</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>12</v>
@@ -5943,7 +5946,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>13</v>
@@ -5962,7 +5965,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
@@ -5978,7 +5981,7 @@
         <v>80</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -5994,7 +5997,7 @@
         <v>81</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -6010,7 +6013,7 @@
         <v>82</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
@@ -6028,7 +6031,7 @@
         <v>83</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6044,7 +6047,7 @@
         <v>84</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6060,7 +6063,7 @@
         <v>85</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -6076,7 +6079,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6094,7 +6097,7 @@
         <v>87</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6110,7 +6113,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6126,7 +6129,7 @@
         <v>89</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6144,7 +6147,7 @@
         <v>90</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6160,7 +6163,7 @@
         <v>91</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6178,7 +6181,7 @@
         <v>92</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6196,7 +6199,7 @@
         <v>93</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6211,10 +6214,10 @@
         <v>54</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6232,7 +6235,7 @@
         <v>91</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6248,7 +6251,7 @@
         <v>94</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6261,10 +6264,10 @@
         <v>58</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6280,7 +6283,7 @@
         <v>95</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6298,7 +6301,7 @@
         <v>96</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6316,7 +6319,7 @@
         <v>97</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6334,7 +6337,7 @@
         <v>98</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6352,7 +6355,7 @@
         <v>99</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6367,10 +6370,10 @@
         <v>68</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>100</v>
+        <v>1673</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>130</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6383,10 +6386,10 @@
         <v>69</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6401,48 +6404,48 @@
         <v>71</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C36" s="16">
         <v>45</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21">
         <v>51</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6452,47 +6455,47 @@
         <v>54</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21">
         <v>75</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6502,13 +6505,13 @@
         <v>78</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6518,47 +6521,47 @@
         <v>81</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21">
         <v>102</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6568,29 +6571,29 @@
         <v>105</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6600,65 +6603,65 @@
         <v>120</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="21">
         <v>126</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="21">
         <v>147</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6668,47 +6671,47 @@
         <v>150</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="21">
         <v>171</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6718,47 +6721,47 @@
         <v>174</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="21">
         <v>195</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6768,13 +6771,13 @@
         <v>198</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -6784,47 +6787,47 @@
         <v>201</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="21">
         <v>226</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6834,13 +6837,13 @@
         <v>233</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6850,113 +6853,113 @@
         <v>236</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="21">
         <v>260</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="21">
         <v>313</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6966,13 +6969,13 @@
         <v>316</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6982,47 +6985,47 @@
         <v>319</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21">
         <v>362</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7032,13 +7035,13 @@
         <v>365</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7048,13 +7051,13 @@
         <v>368</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7064,13 +7067,13 @@
         <v>371</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7080,29 +7083,29 @@
         <v>374</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7112,63 +7115,63 @@
         <v>396</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
       <c r="C79" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="21">
         <v>445</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7178,13 +7181,13 @@
         <v>450</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -7194,13 +7197,13 @@
         <v>457</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7210,13 +7213,13 @@
         <v>467</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7226,31 +7229,31 @@
         <v>476</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A86" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="21">
         <v>484</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -7260,31 +7263,31 @@
         <v>493</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="21">
         <v>505</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7294,13 +7297,13 @@
         <v>530</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -7318,25 +7321,25 @@
         <v>75</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="21">
         <v>582</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7348,13 +7351,13 @@
         <v>587</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -7364,13 +7367,13 @@
         <v>590</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7380,83 +7383,83 @@
         <v>593</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C95" s="21">
         <v>33</v>
       </c>
       <c r="D95" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F95" s="23" t="s">
         <v>323</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
       <c r="B96" s="20"/>
       <c r="C96" s="21" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D96" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F96" s="23" t="s">
         <v>326</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="21">
         <v>98</v>
       </c>
       <c r="D97" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F97" s="23" t="s">
         <v>329</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
       <c r="B98" s="20"/>
       <c r="C98" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D98" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" s="23" t="s">
         <v>332</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -7468,13 +7471,13 @@
         <v>184</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>336</v>
+        <v>1675</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>337</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -7486,31 +7489,31 @@
         <v>189</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="21">
         <v>260</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -7522,13 +7525,13 @@
         <v>265</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7536,19 +7539,19 @@
         <v>52</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C103" s="21">
         <v>14</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -7558,31 +7561,31 @@
         <v>17</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="21">
         <v>30</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7592,13 +7595,13 @@
         <v>33</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -7610,13 +7613,13 @@
         <v>76</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7626,13 +7629,13 @@
         <v>79</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7644,13 +7647,13 @@
         <v>121</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7660,13 +7663,13 @@
         <v>124</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7678,13 +7681,13 @@
         <v>170</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7696,13 +7699,13 @@
         <v>208</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7712,31 +7715,31 @@
         <v>211</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="21">
         <v>232</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -7748,13 +7751,13 @@
         <v>270</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7764,13 +7767,13 @@
         <v>273</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -7782,31 +7785,31 @@
         <v>278</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="21">
         <v>296</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -7818,31 +7821,31 @@
         <v>306</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="21">
         <v>353</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7852,13 +7855,13 @@
         <v>356</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7870,13 +7873,13 @@
         <v>369</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F122" s="23" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7886,13 +7889,13 @@
         <v>372</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7902,13 +7905,13 @@
         <v>375</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7918,13 +7921,13 @@
         <v>378</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7934,47 +7937,47 @@
         <v>381</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="21">
         <v>398</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
       <c r="B128" s="20"/>
       <c r="C128" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -7986,13 +7989,13 @@
         <v>434</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8004,29 +8007,29 @@
         <v>463</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A131" s="19"/>
       <c r="B131" s="20"/>
       <c r="C131" s="21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -8038,13 +8041,13 @@
         <v>506</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -8056,13 +8059,13 @@
         <v>526</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -8074,81 +8077,81 @@
         <v>543</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B135" s="21"/>
       <c r="C135" s="21">
         <v>563</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B136" s="21"/>
       <c r="C136" s="21">
         <v>588</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="19"/>
       <c r="B137" s="20"/>
       <c r="C137" s="21" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F137" s="23" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="19"/>
       <c r="B138" s="20"/>
       <c r="C138" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F138" s="23" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -8160,13 +8163,13 @@
         <v>640</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8178,13 +8181,13 @@
         <v>678</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -8196,13 +8199,13 @@
         <v>714</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8214,13 +8217,13 @@
         <v>719</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8230,13 +8233,13 @@
         <v>722</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8248,13 +8251,13 @@
         <v>735</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -8266,13 +8269,13 @@
         <v>752</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8284,13 +8287,13 @@
         <v>757</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -8302,13 +8305,13 @@
         <v>762</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F147" s="23" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -8320,13 +8323,13 @@
         <v>767</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8336,13 +8339,13 @@
         <v>775</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -8354,13 +8357,13 @@
         <v>787</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F150" s="23" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8370,13 +8373,13 @@
         <v>790</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -8388,13 +8391,13 @@
         <v>813</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F152" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -8406,13 +8409,13 @@
         <v>822</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F153" s="23" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -8424,13 +8427,13 @@
         <v>855</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F154" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8442,13 +8445,13 @@
         <v>860</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -8458,31 +8461,31 @@
         <v>863</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B157" s="21"/>
       <c r="C157" s="21">
         <v>919</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F157" s="23" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -8492,13 +8495,13 @@
         <v>926</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F158" s="23" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -8510,13 +8513,13 @@
         <v>940</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F159" s="23" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -8528,31 +8531,31 @@
         <v>952</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E160" s="22" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F160" s="23" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A161" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B161" s="21"/>
       <c r="C161" s="21">
         <v>961</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8562,13 +8565,13 @@
         <v>971</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -8580,31 +8583,31 @@
         <v>1004</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E163" s="22" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A164" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B164" s="21"/>
       <c r="C164" s="21">
         <v>1009</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8614,13 +8617,13 @@
         <v>1012</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -8632,31 +8635,31 @@
         <v>1023</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F166" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B167" s="21"/>
       <c r="C167" s="21">
         <v>1030</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F167" s="23" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8666,13 +8669,13 @@
         <v>1033</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F168" s="23" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -8684,31 +8687,31 @@
         <v>1046</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F169" s="23" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A170" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B170" s="21"/>
       <c r="C170" s="21">
         <v>1051</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8718,13 +8721,13 @@
         <v>1054</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F171" s="23" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -8736,31 +8739,31 @@
         <v>1066</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F172" s="23" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B173" s="21"/>
       <c r="C173" s="21">
         <v>1079</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F173" s="23" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -8772,13 +8775,13 @@
         <v>1134</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F174" s="23" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8788,13 +8791,13 @@
         <v>1137</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F175" s="23" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -8804,13 +8807,13 @@
         <v>1148</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8820,13 +8823,13 @@
         <v>1153</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F177" s="23" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -8836,13 +8839,13 @@
         <v>1161</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F178" s="23" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -8852,13 +8855,13 @@
         <v>1164</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F179" s="23" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8868,13 +8871,13 @@
         <v>1167</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F180" s="23" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -8884,13 +8887,13 @@
         <v>1175</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F181" s="23" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8900,13 +8903,13 @@
         <v>1178</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -8916,13 +8919,13 @@
         <v>1181</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8932,13 +8935,13 @@
         <v>1184</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -8948,13 +8951,13 @@
         <v>1187</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E185" s="22" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F185" s="23" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -8966,13 +8969,13 @@
         <v>1222</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F186" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -8984,31 +8987,31 @@
         <v>1263</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F187" s="23" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B188" s="21"/>
       <c r="C188" s="21">
         <v>1281</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F188" s="23" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -9018,13 +9021,13 @@
         <v>1318</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F189" s="23" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9034,13 +9037,13 @@
         <v>1321</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F190" s="23" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9050,13 +9053,13 @@
         <v>1324</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F191" s="23" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9066,13 +9069,13 @@
         <v>1327</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F192" s="23" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -9084,13 +9087,13 @@
         <v>1337</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F193" s="23" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -9102,13 +9105,13 @@
         <v>1346</v>
       </c>
       <c r="D194" s="22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F194" s="23" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -9118,13 +9121,13 @@
         <v>1349</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F195" s="23" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -9136,13 +9139,13 @@
         <v>1361</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F196" s="23" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9154,13 +9157,13 @@
         <v>1372</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F197" s="23" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9170,13 +9173,13 @@
         <v>1375</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F198" s="23" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -9188,31 +9191,31 @@
         <v>1390</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F199" s="23" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A200" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B200" s="21"/>
       <c r="C200" s="21">
         <v>1395</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F200" s="23" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -9224,31 +9227,31 @@
         <v>1404</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F201" s="23" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A202" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B202" s="21"/>
       <c r="C202" s="21">
         <v>1409</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E202" s="22" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F202" s="23" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -9260,13 +9263,13 @@
         <v>1418</v>
       </c>
       <c r="D203" s="22" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F203" s="23" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -9278,13 +9281,13 @@
         <v>1426</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F204" s="23" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9296,13 +9299,13 @@
         <v>1435</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F205" s="23" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -9312,13 +9315,13 @@
         <v>1441</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F206" s="23" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -9330,13 +9333,13 @@
         <v>1546</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -9348,13 +9351,13 @@
         <v>1648</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F208" s="23" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -9366,13 +9369,13 @@
         <v>1657</v>
       </c>
       <c r="D209" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F209" s="23" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9384,13 +9387,13 @@
         <v>1735</v>
       </c>
       <c r="D210" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F210" s="23" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9400,29 +9403,29 @@
         <v>1738</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F211" s="23" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="19"/>
       <c r="B212" s="20"/>
       <c r="C212" s="21" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D212" s="22" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F212" s="23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9434,13 +9437,13 @@
         <v>1767</v>
       </c>
       <c r="D213" s="22" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F213" s="23" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9450,13 +9453,13 @@
         <v>1770</v>
       </c>
       <c r="D214" s="22" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F214" s="23" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9466,47 +9469,47 @@
         <v>1773</v>
       </c>
       <c r="D215" s="22" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F215" s="23" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="34"/>
       <c r="B216" s="35"/>
       <c r="C216" s="30" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D216" s="31" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F216" s="32" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="19"/>
       <c r="B217" s="20" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D217" s="22" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F217" s="23" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9518,13 +9521,13 @@
         <v>63</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F218" s="23" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9534,45 +9537,45 @@
         <v>66</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F219" s="23" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A220" s="19"/>
       <c r="B220" s="20"/>
       <c r="C220" s="21" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F220" s="23" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="19"/>
       <c r="B221" s="20"/>
       <c r="C221" s="21" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D221" s="22" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F221" s="23" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -9584,13 +9587,13 @@
         <v>128</v>
       </c>
       <c r="D222" s="22" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F222" s="23" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -9602,13 +9605,13 @@
         <v>182</v>
       </c>
       <c r="D223" s="22" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F223" s="23" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -9618,61 +9621,61 @@
         <v>185</v>
       </c>
       <c r="D224" s="22" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F224" s="23" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="19"/>
       <c r="B225" s="20"/>
       <c r="C225" s="21" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D225" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F225" s="23" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="19"/>
       <c r="B226" s="20"/>
       <c r="C226" s="21" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D226" s="22" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F226" s="23" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="19"/>
       <c r="B227" s="20"/>
       <c r="C227" s="21" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D227" s="22" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F227" s="23" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9684,13 +9687,13 @@
         <v>305</v>
       </c>
       <c r="D228" s="22" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F228" s="23" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -9700,29 +9703,29 @@
         <v>308</v>
       </c>
       <c r="D229" s="22" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F229" s="23" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="19"/>
       <c r="B230" s="20"/>
       <c r="C230" s="21" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D230" s="22" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F230" s="23" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -9734,13 +9737,13 @@
         <v>349</v>
       </c>
       <c r="D231" s="22" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F231" s="23" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -9750,13 +9753,13 @@
         <v>352</v>
       </c>
       <c r="D232" s="22" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F232" s="23" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9768,65 +9771,65 @@
         <v>378</v>
       </c>
       <c r="D233" s="27" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E233" s="27" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F233" s="28" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" s="39" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B234" s="40" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A235" s="19"/>
       <c r="B235" s="20"/>
       <c r="C235" s="21" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F235" s="23" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A236" s="19"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D236" s="22" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F236" s="23" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9836,29 +9839,29 @@
         <v>59</v>
       </c>
       <c r="D237" s="22" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E237" s="22" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F237" s="23" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="19"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D238" s="22" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F238" s="23" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -9868,83 +9871,83 @@
         <v>79</v>
       </c>
       <c r="D239" s="22" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F239" s="23" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A240" s="19"/>
       <c r="B240" s="20"/>
       <c r="C240" s="21" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D240" s="22" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E240" s="22" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F240" s="23" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="41"/>
       <c r="B241" s="42"/>
       <c r="C241" s="26" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E241" s="27" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F241" s="28" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="36" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C242" s="16">
         <v>24</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A243" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B243" s="21"/>
       <c r="C243" s="21">
         <v>27</v>
       </c>
       <c r="D243" s="22" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F243" s="23" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -9956,13 +9959,13 @@
         <v>36</v>
       </c>
       <c r="D244" s="22" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F244" s="23" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -9974,31 +9977,31 @@
         <v>44</v>
       </c>
       <c r="D245" s="22" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E245" s="22" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F245" s="23" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B246" s="21"/>
       <c r="C246" s="21">
         <v>52</v>
       </c>
       <c r="D246" s="22" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F246" s="23" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10008,13 +10011,13 @@
         <v>55</v>
       </c>
       <c r="D247" s="22" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E247" s="22" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F247" s="23" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10024,13 +10027,13 @@
         <v>58</v>
       </c>
       <c r="D248" s="22" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E248" s="22" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F248" s="23" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10040,13 +10043,13 @@
         <v>61</v>
       </c>
       <c r="D249" s="22" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F249" s="23" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -10056,13 +10059,13 @@
         <v>64</v>
       </c>
       <c r="D250" s="22" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F250" s="23" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -10074,99 +10077,99 @@
         <v>145</v>
       </c>
       <c r="D251" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E251" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F251" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A252" s="19"/>
       <c r="B252" s="20"/>
       <c r="C252" s="21" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D252" s="22" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F252" s="23" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A253" s="19"/>
       <c r="B253" s="20"/>
       <c r="C253" s="21" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D253" s="22" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E253" s="22" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="41"/>
       <c r="B254" s="42"/>
       <c r="C254" s="26" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D254" s="27" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E254" s="27" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F254" s="28" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="36" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C255" s="16">
         <v>25</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A256" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B256" s="21"/>
       <c r="C256" s="21">
         <v>28</v>
       </c>
       <c r="D256" s="22" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F256" s="23" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -10176,13 +10179,13 @@
         <v>65</v>
       </c>
       <c r="D257" s="22" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E257" s="22" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F257" s="23" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10194,13 +10197,13 @@
         <v>104</v>
       </c>
       <c r="D258" s="22" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E258" s="22" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F258" s="23" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10210,13 +10213,13 @@
         <v>107</v>
       </c>
       <c r="D259" s="22" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F259" s="23" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -10228,13 +10231,13 @@
         <v>119</v>
       </c>
       <c r="D260" s="22" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E260" s="22" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F260" s="23" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -10246,13 +10249,13 @@
         <v>128</v>
       </c>
       <c r="D261" s="22" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E261" s="22" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F261" s="23" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -10264,31 +10267,31 @@
         <v>138</v>
       </c>
       <c r="D262" s="22" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E262" s="22" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F262" s="23" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A263" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B263" s="21"/>
       <c r="C263" s="21">
         <v>143</v>
       </c>
       <c r="D263" s="22" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E263" s="22" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F263" s="23" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -10298,13 +10301,13 @@
         <v>146</v>
       </c>
       <c r="D264" s="22" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F264" s="23" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10316,49 +10319,49 @@
         <v>227</v>
       </c>
       <c r="D265" s="27" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E265" s="27" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F265" s="28" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="36" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B266" s="16"/>
       <c r="C266" s="16">
         <v>34</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F266" s="18" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B267" s="21"/>
       <c r="C267" s="21">
         <v>37</v>
       </c>
       <c r="D267" s="22" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E267" s="22" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F267" s="23" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10368,13 +10371,13 @@
         <v>40</v>
       </c>
       <c r="D268" s="22" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E268" s="22" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F268" s="23" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10384,13 +10387,13 @@
         <v>43</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E269" s="22" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F269" s="23" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10400,13 +10403,13 @@
         <v>89</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E270" s="22" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F270" s="23" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -10416,47 +10419,47 @@
         <v>92</v>
       </c>
       <c r="D271" s="22" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F271" s="23" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="19"/>
       <c r="B272" s="20"/>
       <c r="C272" s="21" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D272" s="22" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="F272" s="23" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A273" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B273" s="21"/>
       <c r="C273" s="21">
         <v>121</v>
       </c>
       <c r="D273" s="22" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F273" s="23" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10466,47 +10469,47 @@
         <v>124</v>
       </c>
       <c r="D274" s="22" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E274" s="22" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F274" s="23" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="19"/>
       <c r="B275" s="20"/>
       <c r="C275" s="21" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D275" s="22" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F275" s="23" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A276" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B276" s="21"/>
       <c r="C276" s="21">
         <v>149</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F276" s="23" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10516,47 +10519,47 @@
         <v>154</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F277" s="23" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="19"/>
       <c r="B278" s="20"/>
       <c r="C278" s="21" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D278" s="22" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E278" s="22" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F278" s="23" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B279" s="21"/>
       <c r="C279" s="21">
         <v>175</v>
       </c>
       <c r="D279" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E279" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F279" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10566,13 +10569,13 @@
         <v>178</v>
       </c>
       <c r="D280" s="22" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F280" s="23" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10582,63 +10585,63 @@
         <v>181</v>
       </c>
       <c r="D281" s="22" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F281" s="23" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A282" s="19"/>
       <c r="B282" s="20"/>
       <c r="C282" s="21" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D282" s="22" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E282" s="22" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F282" s="23" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A283" s="19"/>
       <c r="B283" s="20"/>
       <c r="C283" s="21" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D283" s="22" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E283" s="22" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="F283" s="23" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B284" s="21"/>
       <c r="C284" s="21">
         <v>217</v>
       </c>
       <c r="D284" s="22" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="E284" s="22" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F284" s="23" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -10648,13 +10651,13 @@
         <v>236</v>
       </c>
       <c r="D285" s="22" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E285" s="22" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="F285" s="23" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -10664,79 +10667,79 @@
         <v>254</v>
       </c>
       <c r="D286" s="22" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E286" s="22" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F286" s="23" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="19"/>
       <c r="B287" s="20"/>
       <c r="C287" s="21" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D287" s="22" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E287" s="22" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="F287" s="23" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A288" s="19"/>
       <c r="B288" s="20"/>
       <c r="C288" s="21" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D288" s="22" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E288" s="22" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F288" s="23" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="19"/>
       <c r="B289" s="20"/>
       <c r="C289" s="21" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D289" s="22" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E289" s="22" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F289" s="23" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A290" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B290" s="21"/>
       <c r="C290" s="21">
         <v>318</v>
       </c>
       <c r="D290" s="22" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E290" s="22" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F290" s="23" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -10746,13 +10749,13 @@
         <v>332</v>
       </c>
       <c r="D291" s="22" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E291" s="22" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F291" s="23" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10762,47 +10765,47 @@
         <v>335</v>
       </c>
       <c r="D292" s="22" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E292" s="22" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F292" s="23" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A293" s="19"/>
       <c r="B293" s="20"/>
       <c r="C293" s="21" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D293" s="22" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E293" s="22" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F293" s="23" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B294" s="21"/>
       <c r="C294" s="21">
         <v>357</v>
       </c>
       <c r="D294" s="22" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F294" s="23" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -10812,13 +10815,13 @@
         <v>376</v>
       </c>
       <c r="D295" s="22" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E295" s="22" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F295" s="23" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -10828,81 +10831,81 @@
         <v>395</v>
       </c>
       <c r="D296" s="22" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E296" s="22" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F296" s="23" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="19"/>
       <c r="B297" s="20"/>
       <c r="C297" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D297" s="22" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="E297" s="22" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="F297" s="23" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B298" s="21"/>
       <c r="C298" s="21">
         <v>430</v>
       </c>
       <c r="D298" s="22" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E298" s="22" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F298" s="23" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A299" s="19"/>
       <c r="B299" s="20"/>
       <c r="C299" s="21" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D299" s="22" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E299" s="22" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="F299" s="23" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B300" s="21"/>
       <c r="C300" s="21">
         <v>455</v>
       </c>
       <c r="D300" s="22" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E300" s="22" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F300" s="23" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10912,83 +10915,83 @@
         <v>458</v>
       </c>
       <c r="D301" s="22" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E301" s="22" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F301" s="23" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A302" s="19"/>
       <c r="B302" s="20"/>
       <c r="C302" s="21" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D302" s="22" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E302" s="22" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="F302" s="23" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="41"/>
       <c r="B303" s="42"/>
       <c r="C303" s="26" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D303" s="27" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E303" s="27" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F303" s="28" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A304" s="36" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B304" s="16" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C304" s="16">
         <v>14</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F304" s="18" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B305" s="21"/>
       <c r="C305" s="21">
         <v>17</v>
       </c>
       <c r="D305" s="22" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E305" s="22" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F305" s="23" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -11000,13 +11003,13 @@
         <v>29</v>
       </c>
       <c r="D306" s="22" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="E306" s="22" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F306" s="23" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11016,13 +11019,13 @@
         <v>32</v>
       </c>
       <c r="D307" s="22" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="E307" s="22" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F307" s="23" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -11032,13 +11035,13 @@
         <v>35</v>
       </c>
       <c r="D308" s="22" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E308" s="22" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F308" s="23" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -11050,13 +11053,13 @@
         <v>50</v>
       </c>
       <c r="D309" s="22" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E309" s="22" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F309" s="23" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -11068,13 +11071,13 @@
         <v>61</v>
       </c>
       <c r="D310" s="22" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="E310" s="22" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F310" s="23" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11086,13 +11089,13 @@
         <v>76</v>
       </c>
       <c r="D311" s="22" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="E311" s="22" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F311" s="23" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -11104,13 +11107,13 @@
         <v>90</v>
       </c>
       <c r="D312" s="22" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E312" s="22" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="F312" s="23" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11122,13 +11125,13 @@
         <v>107</v>
       </c>
       <c r="D313" s="22" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F313" s="23" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11138,65 +11141,65 @@
         <v>110</v>
       </c>
       <c r="D314" s="22" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F314" s="23" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="41"/>
       <c r="B315" s="42"/>
       <c r="C315" s="26" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D315" s="27" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E315" s="27" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F315" s="28" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A316" s="39" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B316" s="40" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E316" s="17" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A317" s="19"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D317" s="22" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E317" s="22" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="F317" s="23" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11206,45 +11209,45 @@
         <v>45</v>
       </c>
       <c r="D318" s="22" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F318" s="23" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A319" s="19"/>
       <c r="B319" s="20"/>
       <c r="C319" s="21" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D319" s="22" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E319" s="22" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="F319" s="23" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="19"/>
       <c r="B320" s="20"/>
       <c r="C320" s="21" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D320" s="22" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F320" s="23" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -11254,115 +11257,115 @@
         <v>26</v>
       </c>
       <c r="D321" s="22" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E321" s="22" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F321" s="23" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A322" s="19"/>
       <c r="B322" s="20"/>
       <c r="C322" s="21" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D322" s="22" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E322" s="22" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F322" s="23" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A323" s="19"/>
       <c r="B323" s="20"/>
       <c r="C323" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D323" s="22" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F323" s="23" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A324" s="19"/>
       <c r="B324" s="20"/>
       <c r="C324" s="21" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D324" s="22" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E324" s="22" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F324" s="23" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="41"/>
       <c r="B325" s="42"/>
       <c r="C325" s="26" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D325" s="27" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E325" s="27" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F325" s="28" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="36" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B326" s="16" t="s">
         <v>1047</v>
-      </c>
-      <c r="B326" s="16" t="s">
-        <v>1051</v>
       </c>
       <c r="C326" s="16">
         <v>16</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E326" s="17" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F326" s="18" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A327" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B327" s="21"/>
       <c r="C327" s="21">
         <v>19</v>
       </c>
       <c r="D327" s="22" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E327" s="22" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F327" s="23" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -11372,13 +11375,13 @@
         <v>22</v>
       </c>
       <c r="D328" s="22" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E328" s="22" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F328" s="23" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -11390,31 +11393,31 @@
         <v>84</v>
       </c>
       <c r="D329" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E329" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F329" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A330" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B330" s="21"/>
       <c r="C330" s="21">
         <v>135</v>
       </c>
       <c r="D330" s="22" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E330" s="22" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="F330" s="23" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -11424,13 +11427,13 @@
         <v>138</v>
       </c>
       <c r="D331" s="22" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E331" s="22" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F331" s="23" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -11442,61 +11445,61 @@
         <v>200</v>
       </c>
       <c r="D332" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F332" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A333" s="19"/>
       <c r="B333" s="20"/>
       <c r="C333" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D333" s="22" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E333" s="22" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F333" s="23" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A334" s="19"/>
       <c r="B334" s="20"/>
       <c r="C334" s="21" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D334" s="22" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E334" s="22" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F334" s="23" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="19"/>
       <c r="B335" s="20"/>
       <c r="C335" s="21" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D335" s="22" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E335" s="22" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="F335" s="23" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11511,10 +11514,10 @@
         <v>39</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F336" s="23" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -11529,10 +11532,10 @@
         <v>40</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F337" s="23" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11542,13 +11545,13 @@
         <v>402</v>
       </c>
       <c r="D338" s="22" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E338" s="22" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F338" s="23" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11558,117 +11561,117 @@
         <v>405</v>
       </c>
       <c r="D339" s="22" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="E339" s="22" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="F339" s="23" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="41"/>
       <c r="B340" s="42"/>
       <c r="C340" s="26" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D340" s="27" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E340" s="27" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F340" s="28" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A341" s="36" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C341" s="16">
         <v>22</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E341" s="17" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F341" s="18" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A342" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B342" s="21"/>
       <c r="C342" s="21">
         <v>25</v>
       </c>
       <c r="D342" s="22" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E342" s="22" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F342" s="23" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A343" s="19"/>
       <c r="B343" s="20"/>
       <c r="C343" s="21" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D343" s="22" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E343" s="22" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="F343" s="23" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A344" s="19"/>
       <c r="B344" s="20"/>
       <c r="C344" s="21" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D344" s="22" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E344" s="22" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F344" s="23" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A345" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B345" s="21"/>
       <c r="C345" s="21">
         <v>69</v>
       </c>
       <c r="D345" s="22" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E345" s="22" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F345" s="23" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -11678,13 +11681,13 @@
         <v>72</v>
       </c>
       <c r="D346" s="22" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="E346" s="22" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F346" s="23" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11694,13 +11697,13 @@
         <v>84</v>
       </c>
       <c r="D347" s="22" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="E347" s="22" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F347" s="23" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11710,13 +11713,13 @@
         <v>87</v>
       </c>
       <c r="D348" s="22" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E348" s="22" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="F348" s="23" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -11728,13 +11731,13 @@
         <v>92</v>
       </c>
       <c r="D349" s="22" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E349" s="22" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F349" s="23" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11744,13 +11747,13 @@
         <v>98</v>
       </c>
       <c r="D350" s="22" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="E350" s="22" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="F350" s="23" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -11760,31 +11763,31 @@
         <v>101</v>
       </c>
       <c r="D351" s="22" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E351" s="22" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F351" s="23" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A352" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B352" s="21"/>
       <c r="C352" s="21">
         <v>114</v>
       </c>
       <c r="D352" s="22" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E352" s="22" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="F352" s="23" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11794,13 +11797,13 @@
         <v>117</v>
       </c>
       <c r="D353" s="22" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F353" s="23" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11810,29 +11813,29 @@
         <v>120</v>
       </c>
       <c r="D354" s="22" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E354" s="22" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="F354" s="23" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="19"/>
       <c r="B355" s="20"/>
       <c r="C355" s="21" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D355" s="22" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E355" s="22" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F355" s="23" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11844,31 +11847,31 @@
         <v>153</v>
       </c>
       <c r="D356" s="22" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E356" s="22" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="F356" s="23" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B357" s="21"/>
       <c r="C357" s="21">
         <v>158</v>
       </c>
       <c r="D357" s="22" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E357" s="22" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F357" s="23" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -11878,13 +11881,13 @@
         <v>161</v>
       </c>
       <c r="D358" s="22" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E358" s="22" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="F358" s="23" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11894,13 +11897,13 @@
         <v>164</v>
       </c>
       <c r="D359" s="22" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E359" s="22" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F359" s="23" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11910,13 +11913,13 @@
         <v>167</v>
       </c>
       <c r="D360" s="22" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E360" s="22" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="F360" s="23" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -11928,13 +11931,13 @@
         <v>172</v>
       </c>
       <c r="D361" s="22" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E361" s="22" t="s">
-        <v>1145</v>
+        <v>1677</v>
       </c>
       <c r="F361" s="23" t="s">
-        <v>1174</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11946,13 +11949,13 @@
         <v>177</v>
       </c>
       <c r="D362" s="22" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E362" s="22" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="F362" s="23" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11964,13 +11967,13 @@
         <v>182</v>
       </c>
       <c r="D363" s="22" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E363" s="22" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="F363" s="23" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -11982,113 +11985,113 @@
         <v>187</v>
       </c>
       <c r="D364" s="22" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E364" s="22" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="F364" s="23" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="45"/>
       <c r="B365" s="46"/>
       <c r="C365" s="21" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D365" s="22" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E365" s="22" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="F365" s="23" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A366" s="45"/>
       <c r="B366" s="46"/>
       <c r="C366" s="21" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D366" s="22" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="F366" s="23" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A367" s="45"/>
       <c r="B367" s="46"/>
       <c r="C367" s="21" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D367" s="22" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E367" s="22" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="F367" s="23" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="45"/>
       <c r="B368" s="46"/>
       <c r="C368" s="21" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D368" s="22" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E368" s="22" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="F368" s="23" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A369" s="47"/>
       <c r="B369" s="43"/>
       <c r="C369" s="30" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D369" s="31" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E369" s="31" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="F369" s="32" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" s="48" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C370" s="21">
         <v>19</v>
       </c>
       <c r="D370" s="49" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="E370" s="49" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="F370" s="50" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12098,13 +12101,13 @@
         <v>23</v>
       </c>
       <c r="D371" s="49" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="E371" s="49" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="F371" s="50" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12114,13 +12117,13 @@
         <v>27</v>
       </c>
       <c r="D372" s="49" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="E372" s="49" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="F372" s="50" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12130,13 +12133,13 @@
         <v>33</v>
       </c>
       <c r="D373" s="49" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="E373" s="49" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="F373" s="50" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12146,13 +12149,13 @@
         <v>37</v>
       </c>
       <c r="D374" s="49" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="E374" s="49" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="F374" s="50" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12162,13 +12165,13 @@
         <v>41</v>
       </c>
       <c r="D375" s="49" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="E375" s="49" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F375" s="50" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12178,13 +12181,13 @@
         <v>62</v>
       </c>
       <c r="D376" s="49" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="E376" s="49" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="F376" s="50" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -12194,13 +12197,13 @@
         <v>66</v>
       </c>
       <c r="D377" s="49" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="E377" s="49" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="F377" s="50" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -12210,29 +12213,29 @@
         <v>70</v>
       </c>
       <c r="D378" s="49" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="E378" s="49" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="F378" s="50" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="45"/>
       <c r="B379" s="46"/>
       <c r="C379" s="21" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="D379" s="49" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="E379" s="49" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="F379" s="50" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -12242,13 +12245,13 @@
         <v>88</v>
       </c>
       <c r="D380" s="49" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="E380" s="49" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="F380" s="50" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -12258,129 +12261,129 @@
         <v>92</v>
       </c>
       <c r="D381" s="44" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="E381" s="44" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="F381" s="52" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A382" s="45"/>
       <c r="B382" s="46" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C382" s="21" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="D382" s="22" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="E382" s="22" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="F382" s="23" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A383" s="45"/>
       <c r="B383" s="46"/>
       <c r="C383" s="21" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D383" s="22" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="E383" s="22" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="F383" s="23" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="19"/>
       <c r="B384" s="20"/>
       <c r="C384" s="21" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="D384" s="22" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="E384" s="22" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="F384" s="23" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="19"/>
       <c r="B385" s="20"/>
       <c r="C385" s="21" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="D385" s="22" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="E385" s="22" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="F385" s="23" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="19"/>
       <c r="B386" s="20"/>
       <c r="C386" s="21" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="D386" s="22" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="E386" s="22" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="F386" s="23" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A387" s="19"/>
       <c r="B387" s="20"/>
       <c r="C387" s="21" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="D387" s="22" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="E387" s="22" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="F387" s="23" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B388" s="21"/>
       <c r="C388" s="21">
         <v>196</v>
       </c>
       <c r="D388" s="22" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="E388" s="22" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="F388" s="23" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -12390,13 +12393,13 @@
         <v>199</v>
       </c>
       <c r="D389" s="22" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="E389" s="22" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="F389" s="23" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -12411,44 +12414,44 @@
         <v>54</v>
       </c>
       <c r="E390" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F390" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B391" s="21"/>
       <c r="C391" s="21">
         <v>248</v>
       </c>
       <c r="D391" s="22" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E391" s="22" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="F391" s="23" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="19"/>
       <c r="B392" s="21"/>
       <c r="C392" s="21" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="D392" s="22" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="E392" s="22" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="F392" s="23" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12458,29 +12461,29 @@
         <v>271</v>
       </c>
       <c r="D393" s="22" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="E393" s="22" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="F393" s="23" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A394" s="19"/>
       <c r="B394" s="20"/>
       <c r="C394" s="21" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="D394" s="22" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="E394" s="22" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="F394" s="23" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -12492,13 +12495,13 @@
         <v>296</v>
       </c>
       <c r="D395" s="22" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="E395" s="22" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="F395" s="23" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12508,13 +12511,13 @@
         <v>299</v>
       </c>
       <c r="D396" s="22" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="E396" s="22" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="F396" s="23" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12524,31 +12527,31 @@
         <v>302</v>
       </c>
       <c r="D397" s="22" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="E397" s="22" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="F397" s="23" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A398" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B398" s="21"/>
       <c r="C398" s="21">
         <v>307</v>
       </c>
       <c r="D398" s="22" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="E398" s="22" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F398" s="23" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12558,13 +12561,13 @@
         <v>310</v>
       </c>
       <c r="D399" s="22" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="E399" s="22" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="F399" s="23" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -12574,13 +12577,13 @@
         <v>313</v>
       </c>
       <c r="D400" s="22" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="E400" s="22" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="F400" s="23" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12590,13 +12593,13 @@
         <v>316</v>
       </c>
       <c r="D401" s="22" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="E401" s="22" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="F401" s="23" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12606,13 +12609,13 @@
         <v>319</v>
       </c>
       <c r="D402" s="22" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="E402" s="22" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="F402" s="23" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12622,13 +12625,13 @@
         <v>322</v>
       </c>
       <c r="D403" s="22" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="E403" s="22" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="F403" s="23" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12640,13 +12643,13 @@
         <v>334</v>
       </c>
       <c r="D404" s="22" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="E404" s="22" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="F404" s="23" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -12656,31 +12659,31 @@
         <v>337</v>
       </c>
       <c r="D405" s="22" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="E405" s="22" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="F405" s="23" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B406" s="21"/>
       <c r="C406" s="21">
         <v>342</v>
       </c>
       <c r="D406" s="22" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="E406" s="22" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="F406" s="23" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -12690,13 +12693,13 @@
         <v>360</v>
       </c>
       <c r="D407" s="22" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="E407" s="22" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="F407" s="23" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12706,13 +12709,13 @@
         <v>363</v>
       </c>
       <c r="D408" s="22" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="E408" s="22" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F408" s="23" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -12724,31 +12727,31 @@
         <v>376</v>
       </c>
       <c r="D409" s="22" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="E409" s="22" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="F409" s="23" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B410" s="21"/>
       <c r="C410" s="21">
         <v>389</v>
       </c>
       <c r="D410" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="E410" s="22" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F410" s="23" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -12760,13 +12763,13 @@
         <v>403</v>
       </c>
       <c r="D411" s="22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E411" s="22" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F411" s="23" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12776,13 +12779,13 @@
         <v>406</v>
       </c>
       <c r="D412" s="22" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="E412" s="22" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="F412" s="23" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -12797,28 +12800,28 @@
         <v>54</v>
       </c>
       <c r="E413" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F413" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B414" s="21"/>
       <c r="C414" s="21">
         <v>455</v>
       </c>
       <c r="D414" s="22" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="E414" s="22" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="F414" s="23" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12828,13 +12831,13 @@
         <v>458</v>
       </c>
       <c r="D415" s="22" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="E415" s="22" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="F415" s="23" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -12844,13 +12847,13 @@
         <v>461</v>
       </c>
       <c r="D416" s="22" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="E416" s="22" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F416" s="23" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -12860,13 +12863,13 @@
         <v>478</v>
       </c>
       <c r="D417" s="22" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="E417" s="22" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="F417" s="23" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12878,13 +12881,13 @@
         <v>483</v>
       </c>
       <c r="D418" s="22" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="E418" s="22" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="F418" s="23" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -12896,13 +12899,13 @@
         <v>523</v>
       </c>
       <c r="D419" s="22" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E419" s="22" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="F419" s="23" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -12914,31 +12917,31 @@
         <v>536</v>
       </c>
       <c r="D420" s="22" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="E420" s="22" t="s">
-        <v>1347</v>
+        <v>1679</v>
       </c>
       <c r="F420" s="23" t="s">
-        <v>1422</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B421" s="21"/>
       <c r="C421" s="21">
         <v>546</v>
       </c>
       <c r="D421" s="22" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="E421" s="22" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="F421" s="23" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12948,13 +12951,13 @@
         <v>549</v>
       </c>
       <c r="D422" s="22" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="E422" s="22" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="F422" s="23" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12964,13 +12967,13 @@
         <v>552</v>
       </c>
       <c r="D423" s="22" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="E423" s="22" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="F423" s="23" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -12980,13 +12983,13 @@
         <v>555</v>
       </c>
       <c r="D424" s="22" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="E424" s="22" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="F424" s="23" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12996,13 +12999,13 @@
         <v>558</v>
       </c>
       <c r="D425" s="22" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="E425" s="22" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="F425" s="23" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13014,13 +13017,13 @@
         <v>576</v>
       </c>
       <c r="D426" s="22" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="E426" s="22" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="F426" s="23" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -13032,13 +13035,13 @@
         <v>585</v>
       </c>
       <c r="D427" s="22" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="E427" s="22" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="F427" s="23" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -13050,13 +13053,13 @@
         <v>593</v>
       </c>
       <c r="D428" s="22" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="E428" s="22" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="F428" s="23" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -13068,13 +13071,13 @@
         <v>627</v>
       </c>
       <c r="D429" s="22" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="E429" s="22" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="F429" s="23" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13084,13 +13087,13 @@
         <v>662</v>
       </c>
       <c r="D430" s="22" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="E430" s="22" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="F430" s="23" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13100,13 +13103,13 @@
         <v>665</v>
       </c>
       <c r="D431" s="22" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="E431" s="22" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="F431" s="23" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -13118,31 +13121,31 @@
         <v>745</v>
       </c>
       <c r="D432" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E432" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F432" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A433" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B433" s="21"/>
       <c r="C433" s="21">
         <v>856</v>
       </c>
       <c r="D433" s="22" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="E433" s="22" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="F433" s="23" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13152,13 +13155,13 @@
         <v>877</v>
       </c>
       <c r="D434" s="22" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="E434" s="22" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F434" s="23" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13168,13 +13171,13 @@
         <v>880</v>
       </c>
       <c r="D435" s="22" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="E435" s="22" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="F435" s="23" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13184,29 +13187,29 @@
         <v>883</v>
       </c>
       <c r="D436" s="22" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="E436" s="22" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="F436" s="23" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="19"/>
       <c r="B437" s="20"/>
       <c r="C437" s="21" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="D437" s="22" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E437" s="22" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="F437" s="23" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -13218,31 +13221,31 @@
         <v>973</v>
       </c>
       <c r="D438" s="22" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="E438" s="22" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="F438" s="23" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B439" s="21"/>
       <c r="C439" s="21">
         <v>982</v>
       </c>
       <c r="D439" s="22" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="E439" s="22" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="F439" s="23" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13254,13 +13257,13 @@
         <v>1008</v>
       </c>
       <c r="D440" s="22" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="E440" s="22" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="F440" s="23" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -13270,13 +13273,13 @@
         <v>1011</v>
       </c>
       <c r="D441" s="22" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E441" s="22" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="F441" s="23" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -13288,13 +13291,13 @@
         <v>1091</v>
       </c>
       <c r="D442" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E442" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F442" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -13306,13 +13309,13 @@
         <v>1181</v>
       </c>
       <c r="D443" s="22" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="E443" s="22" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="F443" s="23" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -13324,13 +13327,13 @@
         <v>1190</v>
       </c>
       <c r="D444" s="22" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="E444" s="22" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="F444" s="23" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -13342,13 +13345,13 @@
         <v>1304</v>
       </c>
       <c r="D445" s="22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E445" s="22" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F445" s="23" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13358,31 +13361,31 @@
         <v>1319</v>
       </c>
       <c r="D446" s="22" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="E446" s="22" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="F446" s="23" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A447" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B447" s="21"/>
       <c r="C447" s="21">
         <v>1341</v>
       </c>
       <c r="D447" s="22" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="E447" s="22" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F447" s="23" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13392,13 +13395,13 @@
         <v>1344</v>
       </c>
       <c r="D448" s="22" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="E448" s="22" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="F448" s="23" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13410,31 +13413,31 @@
         <v>1353</v>
       </c>
       <c r="D449" s="22" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="E449" s="22" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="F449" s="23" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A450" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B450" s="21"/>
       <c r="C450" s="21">
         <v>1363</v>
       </c>
       <c r="D450" s="22" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E450" s="22" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="F450" s="23" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13444,13 +13447,13 @@
         <v>1366</v>
       </c>
       <c r="D451" s="22" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="E451" s="22" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="F451" s="23" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -13462,13 +13465,13 @@
         <v>1371</v>
       </c>
       <c r="D452" s="22" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="E452" s="22" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="F452" s="23" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13478,13 +13481,13 @@
         <v>1374</v>
       </c>
       <c r="D453" s="22" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="E453" s="22" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="F453" s="23" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13494,13 +13497,13 @@
         <v>1377</v>
       </c>
       <c r="D454" s="22" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="E454" s="22" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="F454" s="23" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -13510,31 +13513,31 @@
         <v>1380</v>
       </c>
       <c r="D455" s="22" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="E455" s="22" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="F455" s="23" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B456" s="21"/>
       <c r="C456" s="21">
         <v>1389</v>
       </c>
       <c r="D456" s="22" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="E456" s="22" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="F456" s="23" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13546,13 +13549,13 @@
         <v>1394</v>
       </c>
       <c r="D457" s="22" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="E457" s="22" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="F457" s="23" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13562,31 +13565,31 @@
         <v>1397</v>
       </c>
       <c r="D458" s="22" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="E458" s="22" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="F458" s="23" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B459" s="21"/>
       <c r="C459" s="21">
         <v>1402</v>
       </c>
       <c r="D459" s="22" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="E459" s="22" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="F459" s="23" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13596,13 +13599,13 @@
         <v>1448</v>
       </c>
       <c r="D460" s="22" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="E460" s="22" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="F460" s="23" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13612,13 +13615,13 @@
         <v>1451</v>
       </c>
       <c r="D461" s="22" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="E461" s="22" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="F461" s="23" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13628,13 +13631,13 @@
         <v>1454</v>
       </c>
       <c r="D462" s="22" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="E462" s="22" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="F462" s="23" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13644,135 +13647,135 @@
         <v>1457</v>
       </c>
       <c r="D463" s="22" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="E463" s="22" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="F463" s="23" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" s="19"/>
       <c r="B464" s="20"/>
       <c r="C464" s="21" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="D464" s="22" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="E464" s="22" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="F464" s="23" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A465" s="19"/>
       <c r="B465" s="20"/>
       <c r="C465" s="21" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="D465" s="22" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="E465" s="22" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="F465" s="23" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="41"/>
       <c r="B466" s="42"/>
       <c r="C466" s="26" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="D466" s="27" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="E466" s="27" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="F466" s="28" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A467" s="36" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="C467" s="16">
         <v>23</v>
       </c>
       <c r="D467" s="17" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="E467" s="17" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="F467" s="18" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A468" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B468" s="21"/>
       <c r="C468" s="21">
         <v>26</v>
       </c>
       <c r="D468" s="22" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="E468" s="22" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="F468" s="23" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="24" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="B469" s="21"/>
       <c r="C469" s="21">
         <v>35</v>
       </c>
       <c r="D469" s="22" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="E469" s="22" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="F469" s="23" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B470" s="21"/>
       <c r="C470" s="21">
         <v>53</v>
       </c>
       <c r="D470" s="22" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="E470" s="22" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="F470" s="23" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -13782,157 +13785,157 @@
         <v>90</v>
       </c>
       <c r="D471" s="22" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="E471" s="22" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="F471" s="23" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A472" s="24" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="B472" s="21"/>
       <c r="C472" s="21">
         <v>96</v>
       </c>
       <c r="D472" s="22" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="E472" s="22" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="F472" s="23" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A473" s="24" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="B473" s="21"/>
       <c r="C473" s="21">
         <v>101</v>
       </c>
       <c r="D473" s="22" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="E473" s="22" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="F473" s="23" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A474" s="24" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="B474" s="21"/>
       <c r="C474" s="21">
         <v>106</v>
       </c>
       <c r="D474" s="22" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="E474" s="22" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="F474" s="23" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A475" s="24" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="B475" s="21"/>
       <c r="C475" s="21">
         <v>111</v>
       </c>
       <c r="D475" s="22" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="E475" s="22" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F475" s="23" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B476" s="21"/>
       <c r="C476" s="21">
         <v>124</v>
       </c>
       <c r="D476" s="22" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="E476" s="22" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="F476" s="23" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="24" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="B477" s="21"/>
       <c r="C477" s="21">
         <v>141</v>
       </c>
       <c r="D477" s="22" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="E477" s="22" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="F477" s="23" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="24" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="B478" s="21"/>
       <c r="C478" s="21">
         <v>153</v>
       </c>
       <c r="D478" s="22" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="E478" s="22" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="F478" s="23" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="24" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="B479" s="21"/>
       <c r="C479" s="21">
         <v>168</v>
       </c>
       <c r="D479" s="22" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="E479" s="22" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="F479" s="23" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13942,233 +13945,235 @@
         <v>171</v>
       </c>
       <c r="D480" s="22" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="E480" s="22" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="F480" s="23" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="25" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B481" s="26"/>
       <c r="C481" s="26">
         <v>184</v>
       </c>
       <c r="D481" s="27" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="E481" s="27" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F481" s="28" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A482" s="39" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B482" s="40" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C482" s="16" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D482" s="17" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E482" s="17" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F482" s="18" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A483" s="19"/>
+      <c r="B483" s="20" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C483" s="21" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D483" s="22" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E483" s="22" t="s">
         <v>1519</v>
       </c>
-      <c r="B482" s="40" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C482" s="16" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D482" s="17" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E482" s="17" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F482" s="18" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A483" s="19"/>
-      <c r="B483" s="20"/>
-      <c r="C483" s="21" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D483" s="22" t="s">
+      <c r="F483" s="23" t="s">
         <v>1522</v>
-      </c>
-      <c r="E483" s="22" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F483" s="23" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A484" s="19"/>
       <c r="B484" s="20"/>
       <c r="C484" s="21" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="D484" s="22" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E484" s="22" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F484" s="23" t="s">
         <v>1523</v>
-      </c>
-      <c r="E484" s="22" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F484" s="23" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="41"/>
       <c r="B485" s="42"/>
       <c r="C485" s="26" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="D485" s="27" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="E485" s="27" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="F485" s="28" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A486" s="39" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B486" s="40" t="s">
         <v>1537</v>
       </c>
-      <c r="B486" s="40" t="s">
-        <v>1545</v>
-      </c>
       <c r="C486" s="16" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="D486" s="17" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="E486" s="17" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="F486" s="18" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="34"/>
       <c r="B487" s="35"/>
       <c r="C487" s="30" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="D487" s="31" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="E487" s="31" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="F487" s="32" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A488" s="19"/>
       <c r="B488" s="20" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="C488" s="21" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="D488" s="22" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="E488" s="22" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="F488" s="23" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="19"/>
       <c r="B489" s="20"/>
       <c r="C489" s="21" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="D489" s="22" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="E489" s="22" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="F489" s="23" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="19"/>
       <c r="B490" s="20"/>
       <c r="C490" s="21" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="D490" s="22" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="E490" s="22" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="F490" s="23" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A491" s="19"/>
       <c r="B491" s="20"/>
       <c r="C491" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D491" s="22" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="E491" s="22" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="F491" s="23" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="19"/>
       <c r="B492" s="20"/>
       <c r="C492" s="21" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="D492" s="22" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="E492" s="22" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="F492" s="23" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A493" s="19"/>
       <c r="B493" s="20"/>
       <c r="C493" s="21" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="D493" s="22" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="E493" s="22" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="F493" s="23" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14178,13 +14183,13 @@
         <v>194</v>
       </c>
       <c r="D494" s="22" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="E494" s="22" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="F494" s="23" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14194,13 +14199,13 @@
         <v>199</v>
       </c>
       <c r="D495" s="22" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="E495" s="22" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="F495" s="23" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14210,13 +14215,13 @@
         <v>202</v>
       </c>
       <c r="D496" s="22" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="E496" s="22" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="F496" s="23" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14226,13 +14231,13 @@
         <v>205</v>
       </c>
       <c r="D497" s="22" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="E497" s="22" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="F497" s="23" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14242,13 +14247,13 @@
         <v>208</v>
       </c>
       <c r="D498" s="22" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="E498" s="22" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="F498" s="23" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14258,13 +14263,13 @@
         <v>211</v>
       </c>
       <c r="D499" s="22" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="E499" s="22" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="F499" s="23" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -14274,13 +14279,13 @@
         <v>214</v>
       </c>
       <c r="D500" s="22" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="E500" s="22" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F500" s="23" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14290,13 +14295,13 @@
         <v>217</v>
       </c>
       <c r="D501" s="22" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="E501" s="22" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="F501" s="23" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14306,13 +14311,13 @@
         <v>220</v>
       </c>
       <c r="D502" s="22" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="E502" s="22" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="F502" s="23" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14322,13 +14327,13 @@
         <v>223</v>
       </c>
       <c r="D503" s="22" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="E503" s="22" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="F503" s="23" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14338,13 +14343,13 @@
         <v>226</v>
       </c>
       <c r="D504" s="22" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="E504" s="22" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="F504" s="23" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14354,13 +14359,13 @@
         <v>229</v>
       </c>
       <c r="D505" s="22" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="E505" s="22" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="F505" s="23" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14370,77 +14375,77 @@
         <v>232</v>
       </c>
       <c r="D506" s="22" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="E506" s="22" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="F506" s="23" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="19"/>
       <c r="B507" s="20"/>
       <c r="C507" s="21" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="D507" s="22" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="E507" s="22" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="F507" s="23" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="19"/>
       <c r="B508" s="20"/>
       <c r="C508" s="21" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="D508" s="22" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="E508" s="22" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="F508" s="23" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A509" s="19"/>
       <c r="B509" s="20"/>
       <c r="C509" s="21" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="D509" s="22" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="E509" s="22" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="F509" s="23" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A510" s="19"/>
       <c r="B510" s="21"/>
       <c r="C510" s="21" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="D510" s="22" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="E510" s="22" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="F510" s="23" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14450,29 +14455,29 @@
         <v>310</v>
       </c>
       <c r="D511" s="22" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="E511" s="22" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="F511" s="23" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="19"/>
       <c r="B512" s="20"/>
       <c r="C512" s="21" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
       <c r="D512" s="22" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="E512" s="22" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="F512" s="23" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14482,13 +14487,13 @@
         <v>339</v>
       </c>
       <c r="D513" s="22" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="E513" s="22" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="F513" s="23" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14498,13 +14503,13 @@
         <v>342</v>
       </c>
       <c r="D514" s="22" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="E514" s="22" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="F514" s="23" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14514,13 +14519,13 @@
         <v>345</v>
       </c>
       <c r="D515" s="22" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="E515" s="22" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="F515" s="23" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14530,13 +14535,13 @@
         <v>348</v>
       </c>
       <c r="D516" s="22" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="E516" s="22" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="F516" s="23" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -14546,13 +14551,13 @@
         <v>351</v>
       </c>
       <c r="D517" s="22" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="E517" s="22" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="F517" s="23" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14562,113 +14567,113 @@
         <v>354</v>
       </c>
       <c r="D518" s="22" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="E518" s="22" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="F518" s="23" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A519" s="19"/>
       <c r="B519" s="20"/>
       <c r="C519" s="21" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="D519" s="22" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="E519" s="22" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="F519" s="23" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="19"/>
       <c r="B520" s="20"/>
       <c r="C520" s="21" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="D520" s="22" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="E520" s="22" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="F520" s="23" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A521" s="19"/>
       <c r="B521" s="20"/>
       <c r="C521" s="21" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="D521" s="22" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="E521" s="22" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="F521" s="23" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A522" s="19"/>
       <c r="B522" s="20"/>
       <c r="C522" s="21" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="D522" s="22" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="E522" s="22" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="F522" s="23" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A523" s="34"/>
       <c r="B523" s="35"/>
       <c r="C523" s="30" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="D523" s="31" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="E523" s="31" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="F523" s="32" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A524" s="54" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="B524" s="21" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="C524" s="21">
         <v>11</v>
       </c>
       <c r="D524" s="22" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="E524" s="22" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="F524" s="23" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -14678,13 +14683,13 @@
         <v>15</v>
       </c>
       <c r="D525" s="22" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="E525" s="22" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="F525" s="23" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14694,13 +14699,13 @@
         <v>21</v>
       </c>
       <c r="D526" s="22" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="E526" s="22" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="F526" s="23" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14710,13 +14715,13 @@
         <v>25</v>
       </c>
       <c r="D527" s="22" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="E527" s="22" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="F527" s="23" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14726,13 +14731,13 @@
         <v>28</v>
       </c>
       <c r="D528" s="22" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="E528" s="22" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="F528" s="23" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14742,13 +14747,13 @@
         <v>31</v>
       </c>
       <c r="D529" s="22" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="E529" s="22" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="F529" s="23" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14758,13 +14763,13 @@
         <v>34</v>
       </c>
       <c r="D530" s="22" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="E530" s="22" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="F530" s="23" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14774,13 +14779,13 @@
         <v>37</v>
       </c>
       <c r="D531" s="22" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="E531" s="22" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="F531" s="23" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -14790,13 +14795,13 @@
         <v>40</v>
       </c>
       <c r="D532" s="22" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="E532" s="22" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F532" s="23" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14806,13 +14811,13 @@
         <v>43</v>
       </c>
       <c r="D533" s="22" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="E533" s="22" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="F533" s="23" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14822,13 +14827,13 @@
         <v>46</v>
       </c>
       <c r="D534" s="22" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="E534" s="22" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="F534" s="23" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14838,13 +14843,13 @@
         <v>49</v>
       </c>
       <c r="D535" s="22" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="E535" s="22" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="F535" s="23" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14854,13 +14859,13 @@
         <v>52</v>
       </c>
       <c r="D536" s="22" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="E536" s="22" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="F536" s="23" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14870,13 +14875,13 @@
         <v>55</v>
       </c>
       <c r="D537" s="22" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="E537" s="22" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="F537" s="23" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14886,13 +14891,13 @@
         <v>58</v>
       </c>
       <c r="D538" s="22" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="E538" s="22" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="F538" s="23" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14902,13 +14907,13 @@
         <v>61</v>
       </c>
       <c r="D539" s="22" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="E539" s="22" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="F539" s="23" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14918,13 +14923,13 @@
         <v>64</v>
       </c>
       <c r="D540" s="22" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="E540" s="22" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="F540" s="23" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14934,13 +14939,13 @@
         <v>67</v>
       </c>
       <c r="D541" s="22" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="E541" s="22" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="F541" s="23" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14950,13 +14955,13 @@
         <v>70</v>
       </c>
       <c r="D542" s="22" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="E542" s="22" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="F542" s="23" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -14966,13 +14971,13 @@
         <v>73</v>
       </c>
       <c r="D543" s="22" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="E543" s="22" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="F543" s="23" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14982,13 +14987,13 @@
         <v>76</v>
       </c>
       <c r="D544" s="22" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="E544" s="22" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="F544" s="23" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14998,13 +15003,13 @@
         <v>81</v>
       </c>
       <c r="D545" s="27" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="E545" s="27" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="F545" s="28" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
     </row>
   </sheetData>
